--- a/dart_api/excel/제이티/제이티.xlsx
+++ b/dart_api/excel/제이티/제이티.xlsx
@@ -1,38 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safa6\git\python\Python_crawling\dart_api\excel\제이티\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E61C83-B637-446C-A027-AAB7CAD1AAF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1분기" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2분기" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1분기" sheetId="1" r:id="rId1"/>
+    <sheet name="2분기" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t>수익(매출액)</t>
+  </si>
+  <si>
+    <t>영업이익(손실)</t>
+  </si>
+  <si>
+    <t>당기순이익(손실)</t>
+  </si>
+  <si>
+    <t>12,456,609,031</t>
+  </si>
+  <si>
+    <t>1,965,944,012</t>
+  </si>
+  <si>
+    <t>2,394,835,894</t>
+  </si>
+  <si>
+    <t>9,321,705,623</t>
+  </si>
+  <si>
+    <t>1,423,585,255</t>
+  </si>
+  <si>
+    <t>1,528,775,215</t>
+  </si>
+  <si>
+    <t>10,569,146,273</t>
+  </si>
+  <si>
+    <t>842,559,174</t>
+  </si>
+  <si>
+    <t>11,275,201,735</t>
+  </si>
+  <si>
+    <t>1,870,201,548</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,10 +106,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -58,83 +125,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -422,163 +430,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>수익(매출액)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>영업이익(손실)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>당기순이익(손실)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>12,456,609,031</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1,965,944,012</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2,394,835,894</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>9,321,705,623</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1,423,585,255</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1,528,775,215</t>
-        </is>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>수익(매출액)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>영업이익(손실)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>10,569,146,273</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>842,559,174</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>11,275,201,735</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1,870,201,548</t>
-        </is>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/dart_api/excel/제이티/제이티.xlsx
+++ b/dart_api/excel/제이티/제이티.xlsx
@@ -1,97 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safa6\git\python\Python_crawling\dart_api\excel\제이티\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E61C83-B637-446C-A027-AAB7CAD1AAF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1분기" sheetId="1" r:id="rId1"/>
-    <sheet name="2분기" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2분기" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>수익(매출액)</t>
-  </si>
-  <si>
-    <t>영업이익(손실)</t>
-  </si>
-  <si>
-    <t>당기순이익(손실)</t>
-  </si>
-  <si>
-    <t>12,456,609,031</t>
-  </si>
-  <si>
-    <t>1,965,944,012</t>
-  </si>
-  <si>
-    <t>2,394,835,894</t>
-  </si>
-  <si>
-    <t>9,321,705,623</t>
-  </si>
-  <si>
-    <t>1,423,585,255</t>
-  </si>
-  <si>
-    <t>1,528,775,215</t>
-  </si>
-  <si>
-    <t>10,569,146,273</t>
-  </si>
-  <si>
-    <t>842,559,174</t>
-  </si>
-  <si>
-    <t>11,275,201,735</t>
-  </si>
-  <si>
-    <t>1,870,201,548</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -106,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -125,24 +57,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,124 +421,1031 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>제 23 기 반기</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>제 23 기 반기</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>제 22 기 반기</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>제 22 기 반기</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3개월</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>누적</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3개월</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>누적</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>수익(매출액)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10,569,146,273</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23,025,755,304</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11,275,201,735</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>20,430,120,958</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>매출원가</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8,522,722,513</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17,676,396,432</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8,011,749,022</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>14,302,293,959</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>매출총이익</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2,046,423,760</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5,349,358,872</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3,263,452,713</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6,127,826,999</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>판매비와관리비</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1,203,864,586</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2,540,855,686</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1,393,251,165</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2,673,819,458</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>영업이익(손실)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>842,559,174</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2,808,503,186</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,870,201,548</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3,454,007,541</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>금융손익</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>(165,231,383)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8,678,983</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(81,920,752)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(158,413,264)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>금융수익</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>53,408,010</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>165,108,193</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70,303,962</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>133,395,439</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>금융비용</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>(218,639,393)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>(156,429,210)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(152,224,714)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(291,808,703)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>기타수익</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>(34,252,798)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>356,080,132</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>(114,241,551)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>91,209,727</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>기타수익</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5,956,696</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>390,824,102</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80,260,814</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>183,073,623</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>기타비용</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>(40,209,494)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>(34,743,970)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>(194,502,365)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>(91,863,896)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>법인세비용차감전순이익(손실)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>643,074,993</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3,173,262,301</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1,674,039,245</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3,386,804,004</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>법인세비용</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1,946,890</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1,946,890</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>계속영업이익(손실)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>641,128,103</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3,171,315,411</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1,674,039,245</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3,386,804,004</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>중단영업이익(손실)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>(1,419,229,914)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>(1,603,219,458)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>반기순이익</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>641,128,103</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3,171,315,411</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>254,809,331</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1,783,584,546</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>기타포괄손익</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>463,984</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>463,984</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>당기손익으로 재분류되지 않는항목(세후기타포괄손익)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>463,984</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>463,984</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>총포괄손익</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>641,592,087</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3,171,779,395</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>254,809,331</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1,783,584,546</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>당기순이익(손실)의 귀속</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>지배기업의 소유지분</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>641,128,103</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3,171,315,411</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>254,809,331</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1,783,584,546</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>비지배지분</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>총 포괄손익의 귀속</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>지배기업의 소유지분</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>641,592,087</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3,171,779,395</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>254,809,331</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1,783,584,546</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>비지배지분</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>주당이익</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>기본주당이익(손실) (단위 : 원)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>계속영업기본주당이익(손실) (단위 : 원)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>중단영업기본주당이익(손실) (단위 : 원)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>(143)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>(162)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>희석주당이익(손실) (단위 : 원)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>계속영업희석주당이익(손실) (단위 : 원)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>중단영업희석주당이익(손실) (단위 : 원)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>(143)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>(162)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>